--- a/sample.xlsx
+++ b/sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMLS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMLS\Murtaza-Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -347,13 +347,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -403,6 +406,26 @@
         <v>725000</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>34343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3434343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>334433434</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -347,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -426,6 +426,16 @@
         <v>334433434</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>34555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>33444</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
